--- a/backend/orbitcorrection/resources/causality.xlsx
+++ b/backend/orbitcorrection/resources/causality.xlsx
@@ -1226,12 +1226,15 @@
   <dimension ref="A1:BE24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="9.875" customWidth="1"/>
+    <col min="6" max="6" width="7.625" customWidth="1"/>
+    <col min="7" max="7" width="8.5" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:57">
@@ -1415,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1433,7 +1436,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1591,7 +1594,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1609,7 +1612,7 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1767,10 +1770,10 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1785,10 +1788,10 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
         <v>0</v>

--- a/backend/orbitcorrection/resources/causality.xlsx
+++ b/backend/orbitcorrection/resources/causality.xlsx
@@ -18,10 +18,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
-    <t>BPMs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEBT-DCH1       </t>
+    <t>Bpms</t>
+  </si>
+  <si>
+    <t>MEBT-DCH1</t>
   </si>
   <si>
     <t>MEBT-DCH2</t>
@@ -33,13 +33,13 @@
     <t>MEBT-DCH4</t>
   </si>
   <si>
-    <t xml:space="preserve"> MEBT-DCH5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MEBT-DCH6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MEBT-DCV1</t>
+    <t>MEBT-DCH5</t>
+  </si>
+  <si>
+    <t>MEBT-DCH6</t>
+  </si>
+  <si>
+    <t>MEBT-DCV1</t>
   </si>
   <si>
     <t>MEBT-DCV2</t>
@@ -51,7 +51,7 @@
     <t>MEBT-DCV4</t>
   </si>
   <si>
-    <t xml:space="preserve"> MEBT-DCV5</t>
+    <t>MEBT-DCV5</t>
   </si>
   <si>
     <t>MEBT-DCV6</t>
@@ -1226,14 +1226,14 @@
   <dimension ref="A1:BE24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="9.875" customWidth="1"/>
-    <col min="6" max="6" width="7.625" customWidth="1"/>
-    <col min="7" max="7" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="11.125" customWidth="1"/>
     <col min="8" max="8" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
